--- a/raw_data/20200818_saline/20200818_Sensor1_Test_73.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_73.xlsx
@@ -1,945 +1,1361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3B80F-3734-4EF6-B68D-5D41867E2603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>64987.038339</v>
+        <v>64987.038338999999</v>
       </c>
       <c r="B2" s="1">
         <v>18.051955</v>
       </c>
       <c r="C2" s="1">
-        <v>897.057000</v>
+        <v>897.05700000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.722000</v>
+        <v>-202.72200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>64997.425032</v>
+        <v>64997.425031999999</v>
       </c>
       <c r="G2" s="1">
-        <v>18.054840</v>
+        <v>18.054839999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>915.738000</v>
+        <v>915.73800000000006</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.673000</v>
+        <v>-171.673</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>65007.882681</v>
+        <v>65007.882681000003</v>
       </c>
       <c r="L2" s="1">
-        <v>18.057745</v>
+        <v>18.057745000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>939.944000</v>
+        <v>939.94399999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-122.087000</v>
+        <v>-122.087</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>65018.407788</v>
+        <v>65018.407787999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.060669</v>
+        <v>18.060669000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>946.904000</v>
+        <v>946.904</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.345000</v>
+        <v>-105.345</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>65029.300926</v>
+        <v>65029.300926000004</v>
       </c>
       <c r="V2" s="1">
-        <v>18.063695</v>
+        <v>18.063694999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>953.829000</v>
+        <v>953.82899999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.942700</v>
+        <v>-89.942700000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>65039.492721</v>
+        <v>65039.492721000002</v>
       </c>
       <c r="AA2" s="1">
         <v>18.066526</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.092000</v>
+        <v>961.09199999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.914000</v>
+        <v>-77.914000000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>65049.780272</v>
+        <v>65049.780272000004</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.069383</v>
+        <v>18.069382999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.849000</v>
+        <v>965.84900000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.616300</v>
+        <v>-75.616299999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>65059.537045</v>
+        <v>65059.537044999997</v>
       </c>
       <c r="AK2" s="1">
         <v>18.072094</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.166000</v>
+        <v>973.16600000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.926400</v>
+        <v>-79.926400000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>65069.796295</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.074943</v>
+        <v>18.074943000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.329000</v>
+        <v>981.32899999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.360900</v>
+        <v>-91.360900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>65080.792636</v>
+        <v>65080.792635999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.077998</v>
+        <v>18.077998000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.346000</v>
+        <v>991.346</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.889000</v>
+        <v>-108.889</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>65091.827594</v>
+        <v>65091.827594000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>18.081063</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.730000</v>
+        <v>999.73</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.403000</v>
+        <v>-124.40300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>65102.816956</v>
+        <v>65102.816956000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>18.084116</v>
+        <v>18.084116000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.485000</v>
+        <v>-195.48500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>65113.863885</v>
+        <v>65113.863884999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.087184</v>
+        <v>18.087184000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.093000</v>
+        <v>-310.09300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>65125.005982</v>
+        <v>65125.005982000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.090279</v>
+        <v>18.090278999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.660000</v>
+        <v>1214.6600000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-489.609000</v>
+        <v>-489.60899999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>65135.357521</v>
+        <v>65135.357520999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.093155</v>
+        <v>18.093154999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="BV2" s="1">
-        <v>-685.935000</v>
+        <v>-685.93499999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>65146.034867</v>
+        <v>65146.034867000002</v>
       </c>
       <c r="BY2" s="1">
         <v>18.096121</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.160000</v>
+        <v>1471.16</v>
       </c>
       <c r="CA2" s="1">
-        <v>-893.923000</v>
+        <v>-893.923</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>65157.259352</v>
+        <v>65157.259352000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.099239</v>
+        <v>18.099239000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1822.000000</v>
+        <v>1822</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1386.550000</v>
+        <v>-1386.55</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>64987.399396</v>
+        <v>64987.399396000001</v>
       </c>
       <c r="B3" s="1">
-        <v>18.052055</v>
+        <v>18.052054999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>897.043000</v>
+        <v>897.04300000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.603000</v>
+        <v>-202.60300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>64997.796040</v>
+        <v>64997.796040000001</v>
       </c>
       <c r="G3" s="1">
-        <v>18.054943</v>
+        <v>18.054943000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>915.552000</v>
+        <v>915.55200000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.741000</v>
+        <v>-171.74100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>65008.572121</v>
+        <v>65008.572120999997</v>
       </c>
       <c r="L3" s="1">
-        <v>18.057937</v>
+        <v>18.057936999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>939.729000</v>
+        <v>939.72900000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.928000</v>
+        <v>-121.928</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>65019.107146</v>
+        <v>65019.107146000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.060863</v>
+        <v>18.060863000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.905000</v>
+        <v>946.90499999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.373000</v>
+        <v>-105.373</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>65029.701198</v>
+        <v>65029.701198000002</v>
       </c>
       <c r="V3" s="1">
         <v>18.063806</v>
       </c>
       <c r="W3" s="1">
-        <v>953.699000</v>
+        <v>953.69899999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.938800</v>
+        <v>-89.938800000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>65039.845870</v>
+        <v>65039.845869999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.066624</v>
+        <v>18.066624000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.081000</v>
+        <v>961.08100000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.909500</v>
+        <v>-77.909499999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>65050.116529</v>
+        <v>65050.116528999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.069477</v>
+        <v>18.069476999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.928000</v>
+        <v>965.928</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.499100</v>
+        <v>-75.499099999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>65059.922966</v>
+        <v>65059.922965999998</v>
       </c>
       <c r="AK3" s="1">
         <v>18.072201</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.160000</v>
+        <v>973.16</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.942600</v>
+        <v>-79.942599999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>65070.251625</v>
+        <v>65070.251624999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.075070</v>
+        <v>18.07507</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.337000</v>
+        <v>981.33699999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.363700</v>
+        <v>-91.363699999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>65081.209240</v>
+        <v>65081.209239999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.078114</v>
+        <v>18.078113999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.330000</v>
+        <v>991.33</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.897000</v>
+        <v>-108.89700000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>65092.269033</v>
+        <v>65092.269032999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.081186</v>
+        <v>18.081185999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.723000</v>
+        <v>999.72299999999996</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.388000</v>
+        <v>-124.38800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>65103.264347</v>
+        <v>65103.264346999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.084240</v>
+        <v>18.084240000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.499000</v>
+        <v>-195.499</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>65114.243330</v>
+        <v>65114.243329999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.087290</v>
+        <v>18.087289999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.089000</v>
+        <v>-310.089</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>65125.437007</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.090399</v>
+        <v>18.090399000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.660000</v>
+        <v>1214.6600000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-489.617000</v>
+        <v>-489.61700000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>65135.817808</v>
@@ -948,512 +1364,512 @@
         <v>18.093283</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="BV3" s="1">
-        <v>-685.972000</v>
+        <v>-685.97199999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>65146.508880</v>
+        <v>65146.508880000001</v>
       </c>
       <c r="BY3" s="1">
         <v>18.096252</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.230000</v>
+        <v>1471.23</v>
       </c>
       <c r="CA3" s="1">
-        <v>-893.861000</v>
+        <v>-893.86099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>65157.816339</v>
+        <v>65157.816338999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.099393</v>
+        <v>18.099392999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1823.110000</v>
+        <v>1823.11</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1386.500000</v>
+        <v>-1386.5</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>64988.052628</v>
+        <v>64988.052627999998</v>
       </c>
       <c r="B4" s="1">
-        <v>18.052237</v>
+        <v>18.052237000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>897.084000</v>
+        <v>897.08399999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.542000</v>
+        <v>-202.542</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>64998.453238</v>
+        <v>64998.453238000002</v>
       </c>
       <c r="G4" s="1">
-        <v>18.055126</v>
+        <v>18.055126000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>915.736000</v>
+        <v>915.73599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.769000</v>
+        <v>-171.76900000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>65008.957047</v>
+        <v>65008.957047000004</v>
       </c>
       <c r="L4" s="1">
-        <v>18.058044</v>
+        <v>18.058043999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>940.087000</v>
+        <v>940.08699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.970000</v>
+        <v>-121.97</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>65019.496506</v>
+        <v>65019.496506000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.060971</v>
+        <v>18.060970999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>946.862000</v>
+        <v>946.86199999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.397000</v>
+        <v>-105.39700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>65030.044428</v>
+        <v>65030.044428000001</v>
       </c>
       <c r="V4" s="1">
-        <v>18.063901</v>
+        <v>18.063901000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>953.828000</v>
+        <v>953.82799999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.843300</v>
+        <v>-89.843299999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>65040.194093</v>
+        <v>65040.194092999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.066721</v>
+        <v>18.066721000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.063000</v>
+        <v>961.06299999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.856500</v>
+        <v>-77.856499999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>65050.461745</v>
+        <v>65050.461745000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.069573</v>
+        <v>18.069572999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.889000</v>
+        <v>965.88900000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.407600</v>
+        <v>-75.407600000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>65060.340068</v>
+        <v>65060.340067999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.072317</v>
+        <v>18.072317000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.197000</v>
+        <v>973.197</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.956000</v>
+        <v>-79.956000000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>65070.922247</v>
+        <v>65070.922247000002</v>
       </c>
       <c r="AP4" s="1">
         <v>18.075256</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.345000</v>
+        <v>981.34500000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.358300</v>
+        <v>-91.3583</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>65081.547016</v>
+        <v>65081.547015999997</v>
       </c>
       <c r="AU4" s="1">
         <v>18.078208</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.314000</v>
+        <v>991.31399999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.888000</v>
+        <v>-108.88800000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>65092.629160</v>
+        <v>65092.629159999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.081286</v>
+        <v>18.081285999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.731000</v>
+        <v>999.73099999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.406000</v>
+        <v>-124.40600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>65103.624940</v>
+        <v>65103.624940000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.084340</v>
+        <v>18.084340000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.504000</v>
+        <v>-195.50399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>65114.617804</v>
+        <v>65114.617804000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>18.087394</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.118000</v>
+        <v>-310.11799999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>65125.856621</v>
+        <v>65125.856620999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.090516</v>
+        <v>18.090516000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.680000</v>
+        <v>1214.68</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-489.619000</v>
+        <v>-489.61900000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>65136.248799</v>
+        <v>65136.248799000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.093402</v>
+        <v>18.093402000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.340000</v>
+        <v>1336.34</v>
       </c>
       <c r="BV4" s="1">
-        <v>-685.999000</v>
+        <v>-685.99900000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>65146.938579</v>
+        <v>65146.938579000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.096372</v>
+        <v>18.096371999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.130000</v>
+        <v>1471.13</v>
       </c>
       <c r="CA4" s="1">
-        <v>-893.873000</v>
+        <v>-893.87300000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>65158.334162</v>
+        <v>65158.334161999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.099537</v>
+        <v>18.099537000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1822.770000</v>
+        <v>1822.77</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1386.590000</v>
+        <v>-1386.59</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>64988.428634</v>
+        <v>64988.428634000004</v>
       </c>
       <c r="B5" s="1">
-        <v>18.052341</v>
+        <v>18.052340999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>896.883000</v>
+        <v>896.88300000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.610000</v>
+        <v>-202.61</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>64998.830693</v>
+        <v>64998.830693000004</v>
       </c>
       <c r="G5" s="1">
-        <v>18.055231</v>
+        <v>18.055230999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>915.426000</v>
+        <v>915.42600000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.422000</v>
+        <v>-171.422</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>65009.304217</v>
+        <v>65009.304216999997</v>
       </c>
       <c r="L5" s="1">
-        <v>18.058140</v>
+        <v>18.058140000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>939.855000</v>
+        <v>939.85500000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.867000</v>
+        <v>-121.867</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>65019.837764</v>
+        <v>65019.837764000004</v>
       </c>
       <c r="Q5" s="1">
         <v>18.061066</v>
       </c>
       <c r="R5" s="1">
-        <v>946.875000</v>
+        <v>946.875</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.383000</v>
+        <v>-105.383</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>65030.389179</v>
+        <v>65030.389178999998</v>
       </c>
       <c r="V5" s="1">
-        <v>18.063997</v>
+        <v>18.063997000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.756000</v>
+        <v>953.75599999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.882700</v>
+        <v>-89.8827</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>65040.616159</v>
+        <v>65040.616158999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.066838</v>
+        <v>18.066838000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.143000</v>
+        <v>961.14300000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.830500</v>
+        <v>-77.830500000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>65050.883890</v>
+        <v>65050.883889999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.069690</v>
+        <v>18.069690000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.954000</v>
+        <v>965.95399999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.424800</v>
+        <v>-75.424800000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>65060.640149</v>
+        <v>65060.640148999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.072400</v>
+        <v>18.072399999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.209000</v>
+        <v>973.20899999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.951200</v>
+        <v>-79.9512</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>65071.281331</v>
+        <v>65071.281330999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.075356</v>
+        <v>18.075355999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.350000</v>
+        <v>981.35</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.352100</v>
+        <v>-91.352099999999993</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>65081.912083</v>
+        <v>65081.912083000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.078309</v>
+        <v>18.078309000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.324000</v>
+        <v>991.32399999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.880000</v>
+        <v>-108.88</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>65092.988265</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.081386</v>
+        <v>18.081385999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.720000</v>
+        <v>999.72</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.388000</v>
+        <v>-124.38800000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>65103.985034</v>
+        <v>65103.985033999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.084440</v>
+        <v>18.084440000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.487000</v>
+        <v>-195.48699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>65115.397483</v>
+        <v>65115.397483000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.087610</v>
+        <v>18.087610000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.180000</v>
+        <v>1106.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.099000</v>
+        <v>-310.09899999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>65126.254941</v>
+        <v>65126.254940999999</v>
       </c>
       <c r="BO5" s="1">
         <v>18.090626</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.700000</v>
+        <v>1214.7</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-489.618000</v>
+        <v>-489.61799999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>65136.663988</v>
@@ -1462,1555 +1878,1555 @@
         <v>18.093518</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="BV5" s="1">
-        <v>-685.937000</v>
+        <v>-685.93700000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>65147.361665</v>
+        <v>65147.361664999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.096489</v>
+        <v>18.096488999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA5" s="1">
-        <v>-893.899000</v>
+        <v>-893.899</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>65159.201201</v>
+        <v>65159.201201000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.099778</v>
+        <v>18.099778000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1822.010000</v>
+        <v>1822.01</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1386.850000</v>
+        <v>-1386.85</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>64988.771826</v>
+        <v>64988.771825999997</v>
       </c>
       <c r="B6" s="1">
-        <v>18.052437</v>
+        <v>18.052437000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>897.084000</v>
+        <v>897.08399999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.513000</v>
+        <v>-202.51300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>64999.177895</v>
+        <v>64999.177895000001</v>
       </c>
       <c r="G6" s="1">
-        <v>18.055327</v>
+        <v>18.055326999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>915.207000</v>
+        <v>915.20699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.705000</v>
+        <v>-171.70500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>65009.647447</v>
+        <v>65009.647447000003</v>
       </c>
       <c r="L6" s="1">
         <v>18.058235</v>
       </c>
       <c r="M6" s="1">
-        <v>939.798000</v>
+        <v>939.798</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.857000</v>
+        <v>-121.857</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>65020.298536</v>
+        <v>65020.298536000002</v>
       </c>
       <c r="Q6" s="1">
         <v>18.061194</v>
       </c>
       <c r="R6" s="1">
-        <v>946.900000</v>
+        <v>946.9</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.327000</v>
+        <v>-105.327</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>65030.813723</v>
+        <v>65030.813722999999</v>
       </c>
       <c r="V6" s="1">
-        <v>18.064115</v>
+        <v>18.064115000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.719000</v>
+        <v>953.71900000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.944600</v>
+        <v>-89.944599999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>65040.895903</v>
+        <v>65040.895902999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.066916</v>
+        <v>18.066915999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.029000</v>
+        <v>961.029</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.867500</v>
+        <v>-77.867500000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>65051.159120</v>
+        <v>65051.159119999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.069766</v>
+        <v>18.069766000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.001000</v>
+        <v>966.00099999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.437100</v>
+        <v>-75.437100000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>65060.989368</v>
+        <v>65060.989368000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.072497</v>
+        <v>18.072496999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.170000</v>
+        <v>973.17</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.959400</v>
+        <v>-79.959400000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>65071.640918</v>
+        <v>65071.640917999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.075456</v>
+        <v>18.075455999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.351000</v>
+        <v>981.351</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.368100</v>
+        <v>-91.368099999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>65082.277656</v>
+        <v>65082.277655999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.078410</v>
+        <v>18.078410000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.334000</v>
+        <v>991.33399999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.891000</v>
+        <v>-108.89100000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>65093.705448</v>
+        <v>65093.705448000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>18.081585</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.726000</v>
+        <v>999.726</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.379000</v>
+        <v>-124.379</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>65104.728041</v>
+        <v>65104.728041000002</v>
       </c>
       <c r="BE6" s="1">
         <v>18.084647</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.521000</v>
+        <v>-195.52099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>65115.773450</v>
+        <v>65115.773450000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.087715</v>
+        <v>18.087714999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.180000</v>
+        <v>1106.18</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.118000</v>
+        <v>-310.11799999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>65126.677502</v>
+        <v>65126.677501999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.090744</v>
+        <v>18.090744000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.700000</v>
+        <v>1214.7</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-489.679000</v>
+        <v>-489.67899999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>65137.096958</v>
+        <v>65137.096958000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.093638</v>
+        <v>18.093637999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV6" s="1">
-        <v>-685.931000</v>
+        <v>-685.93100000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>65148.102719</v>
+        <v>65148.102719000002</v>
       </c>
       <c r="BY6" s="1">
         <v>18.096695</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.130000</v>
+        <v>1471.13</v>
       </c>
       <c r="CA6" s="1">
-        <v>-893.932000</v>
+        <v>-893.93200000000002</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>65159.415441</v>
+        <v>65159.415440999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.099838</v>
+        <v>18.099837999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1823.370000</v>
+        <v>1823.37</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1386.770000</v>
+        <v>-1386.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>64989.117074</v>
+        <v>64989.117074000002</v>
       </c>
       <c r="B7" s="1">
         <v>18.052533</v>
       </c>
       <c r="C7" s="1">
-        <v>897.096000</v>
+        <v>897.096</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.578000</v>
+        <v>-202.578</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>64999.520628</v>
+        <v>64999.520627999998</v>
       </c>
       <c r="G7" s="1">
         <v>18.055422</v>
       </c>
       <c r="H7" s="1">
-        <v>915.341000</v>
+        <v>915.34100000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.796000</v>
+        <v>-171.79599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>65010.069080</v>
+        <v>65010.069080000001</v>
       </c>
       <c r="L7" s="1">
         <v>18.058353</v>
       </c>
       <c r="M7" s="1">
-        <v>940.016000</v>
+        <v>940.01599999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.929000</v>
+        <v>-121.929</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>65020.539129</v>
+        <v>65020.539128999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.061261</v>
+        <v>18.061260999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>946.967000</v>
+        <v>946.96699999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.350000</v>
+        <v>-105.35</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>65031.082554</v>
+        <v>65031.082554000001</v>
       </c>
       <c r="V7" s="1">
-        <v>18.064190</v>
+        <v>18.06419</v>
       </c>
       <c r="W7" s="1">
-        <v>953.787000</v>
+        <v>953.78700000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.921800</v>
+        <v>-89.921800000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>65041.242141</v>
+        <v>65041.242141000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.067012</v>
+        <v>18.067011999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.104000</v>
+        <v>961.10400000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.873200</v>
+        <v>-77.873199999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>65051.504335</v>
+        <v>65051.504334999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.069862</v>
+        <v>18.069862000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.920000</v>
+        <v>965.92</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.471700</v>
+        <v>-75.471699999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>65061.336532</v>
+        <v>65061.336532000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.072593</v>
+        <v>18.072593000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.168000</v>
+        <v>973.16800000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.944200</v>
+        <v>-79.944199999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>65072.361609</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.075656</v>
+        <v>18.075655999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.361000</v>
+        <v>981.36099999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.375500</v>
+        <v>-91.375500000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>65083.005291</v>
+        <v>65083.005291000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.078613</v>
+        <v>18.078613000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.333000</v>
+        <v>991.33299999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.896000</v>
+        <v>-108.896</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>65094.092360</v>
+        <v>65094.092360000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>18.081692</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.713000</v>
+        <v>999.71299999999997</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.388000</v>
+        <v>-124.38800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>65105.068330</v>
+        <v>65105.068330000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.084741</v>
+        <v>18.084741000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.503000</v>
+        <v>-195.50299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>65116.146939</v>
+        <v>65116.146938999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>18.087819</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.180000</v>
+        <v>1106.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.115000</v>
+        <v>-310.11500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>65127.396731</v>
+        <v>65127.396731000001</v>
       </c>
       <c r="BO7" s="1">
         <v>18.090944</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-489.646000</v>
+        <v>-489.64600000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>65137.826234</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.093841</v>
+        <v>18.093841000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="BV7" s="1">
-        <v>-685.959000</v>
+        <v>-685.95899999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>65148.250533</v>
+        <v>65148.250532999999</v>
       </c>
       <c r="BY7" s="1">
         <v>18.096736</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.070000</v>
+        <v>1471.07</v>
       </c>
       <c r="CA7" s="1">
-        <v>-893.995000</v>
+        <v>-893.995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>65159.935790</v>
+        <v>65159.935790000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.099982</v>
+        <v>18.099982000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1821.820000</v>
+        <v>1821.82</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1385.460000</v>
+        <v>-1385.46</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>64989.543138</v>
+        <v>64989.543138000001</v>
       </c>
       <c r="B8" s="1">
-        <v>18.052651</v>
+        <v>18.052651000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>897.029000</v>
+        <v>897.029</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.386000</v>
+        <v>-202.386</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>64999.946692</v>
+        <v>64999.946691999998</v>
       </c>
       <c r="G8" s="1">
-        <v>18.055541</v>
+        <v>18.055541000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>915.843000</v>
+        <v>915.84299999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.909000</v>
+        <v>-171.90899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>65010.363214</v>
+        <v>65010.363213999997</v>
       </c>
       <c r="L8" s="1">
-        <v>18.058434</v>
+        <v>18.058433999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>939.878000</v>
+        <v>939.87800000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.899000</v>
+        <v>-121.899</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>65020.890264</v>
+        <v>65020.890264000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.061358</v>
+        <v>18.061357999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>946.930000</v>
+        <v>946.93</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.391000</v>
+        <v>-105.39100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>65031.425292</v>
       </c>
       <c r="V8" s="1">
-        <v>18.064285</v>
+        <v>18.064285000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>953.735000</v>
+        <v>953.73500000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.852600</v>
+        <v>-89.852599999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>65041.593776</v>
+        <v>65041.593776000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.067109</v>
+        <v>18.067108999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.114000</v>
+        <v>961.11400000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.925900</v>
+        <v>-77.925899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>65051.846576</v>
+        <v>65051.846576000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.069957</v>
+        <v>18.069956999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.988000</v>
+        <v>965.98800000000006</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.437200</v>
+        <v>-75.437200000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>65062.033937</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.072787</v>
+        <v>18.072787000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.172000</v>
+        <v>973.17200000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.964700</v>
+        <v>-79.964699999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>65072.723189</v>
+        <v>65072.723188999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.075756</v>
+        <v>18.075755999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.356000</v>
+        <v>981.35599999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.367300</v>
+        <v>-91.3673</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>65083.365386</v>
+        <v>65083.365385999998</v>
       </c>
       <c r="AU8" s="1">
         <v>18.078713</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.317000</v>
+        <v>991.31700000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.879000</v>
+        <v>-108.879</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>65094.470320</v>
+        <v>65094.47032</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.081797</v>
+        <v>18.081797000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.728000</v>
+        <v>999.72799999999995</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.403000</v>
+        <v>-124.40300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>65105.741369</v>
+        <v>65105.741369000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.084928</v>
+        <v>18.084928000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.505000</v>
+        <v>-195.505</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>65116.843834</v>
+        <v>65116.843833999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.088012</v>
+        <v>18.088011999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.135000</v>
+        <v>-310.13499999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>65127.524699</v>
+        <v>65127.524699000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.090979</v>
+        <v>18.090979000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-489.674000</v>
+        <v>-489.67399999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>65137.966485</v>
+        <v>65137.966484999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.093880</v>
+        <v>18.093879999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.300000</v>
+        <v>1336.3</v>
       </c>
       <c r="BV8" s="1">
-        <v>-685.987000</v>
+        <v>-685.98699999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>65148.676560</v>
+        <v>65148.67656</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.096855</v>
+        <v>18.096855000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA8" s="1">
-        <v>-893.848000</v>
+        <v>-893.84799999999996</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>65160.474103</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.100132</v>
+        <v>18.100131999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1823.050000</v>
+        <v>1823.05</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1386.690000</v>
+        <v>-1386.69</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>64989.819377</v>
       </c>
       <c r="B9" s="1">
-        <v>18.052728</v>
+        <v>18.052727999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>897.055000</v>
+        <v>897.05499999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.682000</v>
+        <v>-202.68199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>65000.217013</v>
+        <v>65000.217013000001</v>
       </c>
       <c r="G9" s="1">
-        <v>18.055616</v>
+        <v>18.055616000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>915.917000</v>
+        <v>915.91700000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.211000</v>
+        <v>-171.21100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>65010.704422</v>
+        <v>65010.704422000003</v>
       </c>
       <c r="L9" s="1">
         <v>18.058529</v>
       </c>
       <c r="M9" s="1">
-        <v>939.793000</v>
+        <v>939.79300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-122.012000</v>
+        <v>-122.012</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>65021.238490</v>
+        <v>65021.238490000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.061455</v>
+        <v>18.061454999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.900000</v>
+        <v>946.9</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.402000</v>
+        <v>-105.402</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>65031.769019</v>
+        <v>65031.769018999999</v>
       </c>
       <c r="V9" s="1">
-        <v>18.064380</v>
+        <v>18.06438</v>
       </c>
       <c r="W9" s="1">
-        <v>953.655000</v>
+        <v>953.65499999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.999000</v>
+        <v>-89.998999999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>65042.289660</v>
+        <v>65042.289660000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.067303</v>
+        <v>18.067302999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.128000</v>
+        <v>961.12800000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.858700</v>
+        <v>-77.858699999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>65052.535518</v>
+        <v>65052.535517999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.070149</v>
+        <v>18.070149000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.934000</v>
+        <v>965.93399999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.378600</v>
+        <v>-75.378600000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>65062.382846</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.072884</v>
+        <v>18.072883999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.171000</v>
+        <v>973.17100000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.945400</v>
+        <v>-79.945400000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>65073.082788</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.075856</v>
+        <v>18.075856000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.365000</v>
+        <v>981.36500000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.357400</v>
+        <v>-91.357399999999998</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>65083.733878</v>
+        <v>65083.733877999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.078815</v>
+        <v>18.078814999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.334000</v>
+        <v>991.33399999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.878000</v>
+        <v>-108.878</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>65095.136438</v>
+        <v>65095.136438000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>18.081982</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.725000</v>
+        <v>999.72500000000002</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.384000</v>
+        <v>-124.384</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>65106.178383</v>
+        <v>65106.178382999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.085050</v>
+        <v>18.085049999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.523000</v>
+        <v>-195.523</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>65117.305594</v>
+        <v>65117.305593999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.088140</v>
+        <v>18.088139999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.180000</v>
+        <v>1106.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.130000</v>
+        <v>-310.13</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>65127.915019</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.091088</v>
+        <v>18.091087999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.690000</v>
+        <v>1214.69</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-489.682000</v>
+        <v>-489.68200000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>65138.376638</v>
+        <v>65138.376638000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.093994</v>
+        <v>18.093993999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.340000</v>
+        <v>1336.34</v>
       </c>
       <c r="BV9" s="1">
-        <v>-685.925000</v>
+        <v>-685.92499999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>65149.126963</v>
+        <v>65149.126963000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.096980</v>
+        <v>18.096979999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-894.070000</v>
+        <v>-894.07</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>65161.016062</v>
+        <v>65161.016062000002</v>
       </c>
       <c r="CD9" s="1">
         <v>18.100282</v>
       </c>
       <c r="CE9" s="1">
-        <v>1822.520000</v>
+        <v>1822.52</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1385.250000</v>
+        <v>-1385.25</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>64990.162641</v>
+        <v>64990.162641000003</v>
       </c>
       <c r="B10" s="1">
         <v>18.052823</v>
       </c>
       <c r="C10" s="1">
-        <v>897.138000</v>
+        <v>897.13800000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.653000</v>
+        <v>-202.65299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>65000.561235</v>
+        <v>65000.561235000001</v>
       </c>
       <c r="G10" s="1">
-        <v>18.055711</v>
+        <v>18.055710999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>915.661000</v>
+        <v>915.66099999999994</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.471000</v>
+        <v>-171.471</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>65011.049637</v>
+        <v>65011.049636999996</v>
       </c>
       <c r="L10" s="1">
-        <v>18.058625</v>
+        <v>18.058624999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>940.047000</v>
+        <v>940.04700000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.980000</v>
+        <v>-121.98</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>65021.936563</v>
+        <v>65021.936563000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.061649</v>
+        <v>18.061648999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.884000</v>
+        <v>946.88400000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.372000</v>
+        <v>-105.372</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>65032.455978</v>
+        <v>65032.455977999998</v>
       </c>
       <c r="V10" s="1">
-        <v>18.064571</v>
+        <v>18.064571000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>953.701000</v>
+        <v>953.70100000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.842600</v>
+        <v>-89.842600000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>65042.639366</v>
+        <v>65042.639366000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.067400</v>
+        <v>18.067399999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.084000</v>
+        <v>961.08399999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.979100</v>
+        <v>-77.979100000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>65052.867838</v>
+        <v>65052.867837999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.070241</v>
+        <v>18.070240999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.869000</v>
+        <v>965.86900000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.452000</v>
+        <v>-75.451999999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>65062.730785</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.072981</v>
+        <v>18.072980999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.164000</v>
+        <v>973.16399999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.930700</v>
+        <v>-79.930700000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>65073.759331</v>
+        <v>65073.759331000001</v>
       </c>
       <c r="AP10" s="1">
         <v>18.076044</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.348000</v>
+        <v>981.34799999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.350700</v>
+        <v>-91.350700000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>65084.404469</v>
+        <v>65084.404469000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.079001</v>
+        <v>18.079001000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.335000</v>
+        <v>991.33500000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.897000</v>
+        <v>-108.89700000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>65095.555033</v>
+        <v>65095.555032999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.082099</v>
+        <v>18.082098999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.728000</v>
+        <v>999.72799999999995</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.400000</v>
+        <v>-124.4</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>65106.538452</v>
+        <v>65106.538452000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.085150</v>
+        <v>18.085149999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.515000</v>
+        <v>-195.51499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>65117.695944</v>
+        <v>65117.695943999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.088249</v>
+        <v>18.088249000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.180000</v>
+        <v>1106.18</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.098000</v>
+        <v>-310.09800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>65128.315326</v>
+        <v>65128.315326000004</v>
       </c>
       <c r="BO10" s="1">
         <v>18.091199</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.690000</v>
+        <v>1214.69</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-489.662000</v>
+        <v>-489.66199999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>65138.805676</v>
+        <v>65138.805676000004</v>
       </c>
       <c r="BT10" s="1">
         <v>18.094113</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="BV10" s="1">
-        <v>-685.930000</v>
+        <v>-685.93</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>65149.554481</v>
+        <v>65149.554480999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.097098</v>
+        <v>18.097097999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA10" s="1">
-        <v>-893.905000</v>
+        <v>-893.90499999999997</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>65161.555182</v>
+        <v>65161.555181999996</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.100432</v>
+        <v>18.100432000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1821.820000</v>
+        <v>1821.82</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1386.450000</v>
+        <v>-1386.45</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>64990.505344</v>
+        <v>64990.505343999997</v>
       </c>
       <c r="B11" s="1">
-        <v>18.052918</v>
+        <v>18.052917999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>897.188000</v>
+        <v>897.18799999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.521000</v>
+        <v>-202.52099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>65000.906948</v>
+        <v>65000.906948000003</v>
       </c>
       <c r="G11" s="1">
-        <v>18.055807</v>
+        <v>18.055807000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>915.630000</v>
+        <v>915.63</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.356000</v>
+        <v>-171.35599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>65011.741060</v>
+        <v>65011.74106</v>
       </c>
       <c r="L11" s="1">
-        <v>18.058817</v>
+        <v>18.058817000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>939.787000</v>
+        <v>939.78700000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.964000</v>
+        <v>-121.964</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>65022.282051</v>
+        <v>65022.282051000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.061745</v>
+        <v>18.061744999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>946.888000</v>
+        <v>946.88800000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.372000</v>
+        <v>-105.372</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>65032.799736</v>
+        <v>65032.799736000001</v>
       </c>
       <c r="V11" s="1">
         <v>18.064667</v>
       </c>
       <c r="W11" s="1">
-        <v>953.713000</v>
+        <v>953.71299999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.964700</v>
+        <v>-89.964699999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>65042.988027</v>
+        <v>65042.988026999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.067497</v>
+        <v>18.067496999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.125000</v>
+        <v>961.125</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.878500</v>
+        <v>-77.878500000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>65053.254222</v>
+        <v>65053.254222000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.070348</v>
+        <v>18.070347999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.932000</v>
+        <v>965.93200000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.437500</v>
+        <v>-75.4375</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>65063.389017</v>
+        <v>65063.389017000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.073164</v>
+        <v>18.073163999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.188000</v>
+        <v>973.18799999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.958300</v>
+        <v>-79.958299999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>65074.194353</v>
+        <v>65074.194352999999</v>
       </c>
       <c r="AP11" s="1">
         <v>18.076165</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.364000</v>
+        <v>981.36400000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.375300</v>
+        <v>-91.375299999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>65084.829570</v>
+        <v>65084.829570000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.079119</v>
+        <v>18.079118999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.338000</v>
+        <v>991.33799999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.881000</v>
+        <v>-108.881</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>65095.930013</v>
+        <v>65095.930012999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>18.082203</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.704000</v>
+        <v>999.70399999999995</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.406000</v>
+        <v>-124.40600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>65106.903495</v>
+        <v>65106.903494999999</v>
       </c>
       <c r="BE11" s="1">
         <v>18.085251</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.518000</v>
+        <v>-195.518</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>65118.069433</v>
+        <v>65118.069432999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.088353</v>
+        <v>18.088353000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.131000</v>
+        <v>-310.13099999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>65128.735402</v>
+        <v>65128.735401999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.091315</v>
+        <v>18.091315000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.750000</v>
+        <v>1214.75</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-489.668000</v>
+        <v>-489.66800000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>65139.216861</v>
+        <v>65139.216861000001</v>
       </c>
       <c r="BT11" s="1">
         <v>18.094227</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.340000</v>
+        <v>1336.34</v>
       </c>
       <c r="BV11" s="1">
-        <v>-685.939000</v>
+        <v>-685.93899999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>65149.976079</v>
@@ -3019,392 +3435,392 @@
         <v>18.097216</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.160000</v>
+        <v>1471.16</v>
       </c>
       <c r="CA11" s="1">
-        <v>-893.955000</v>
+        <v>-893.95500000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>65162.094333</v>
+        <v>65162.094333000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.100582</v>
+        <v>18.100581999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1823.600000</v>
+        <v>1823.6</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1386.110000</v>
+        <v>-1386.11</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>64991.189177</v>
       </c>
       <c r="B12" s="1">
-        <v>18.053108</v>
+        <v>18.053108000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>897.151000</v>
+        <v>897.15099999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.649000</v>
+        <v>-202.649</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>65001.594898</v>
+        <v>65001.594898000003</v>
       </c>
       <c r="G12" s="1">
         <v>18.055999</v>
       </c>
       <c r="H12" s="1">
-        <v>915.959000</v>
+        <v>915.95899999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.316000</v>
+        <v>-171.316</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>65012.087343</v>
+        <v>65012.087342999999</v>
       </c>
       <c r="L12" s="1">
         <v>18.058913</v>
       </c>
       <c r="M12" s="1">
-        <v>939.991000</v>
+        <v>939.99099999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.911000</v>
+        <v>-121.911</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>65022.632711</v>
+        <v>65022.632710999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.061842</v>
+        <v>18.061841999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>946.902000</v>
+        <v>946.90200000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.328000</v>
+        <v>-105.328</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>65033.144456</v>
+        <v>65033.144456000002</v>
       </c>
       <c r="V12" s="1">
-        <v>18.064762</v>
+        <v>18.064762000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>953.761000</v>
+        <v>953.76099999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.961700</v>
+        <v>-89.961699999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>65043.645754</v>
+        <v>65043.645753999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.067679</v>
+        <v>18.067678999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.091000</v>
+        <v>961.09100000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.852800</v>
+        <v>-77.852800000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>65053.733357</v>
+        <v>65053.733356999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.070481</v>
+        <v>18.070481000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.887000</v>
+        <v>965.88699999999994</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.502900</v>
+        <v>-75.502899999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>65063.774863</v>
+        <v>65063.774862999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.073271</v>
+        <v>18.073270999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.208000</v>
+        <v>973.20799999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.963100</v>
+        <v>-79.963099999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>65074.554913</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.076265</v>
+        <v>18.076264999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.342000</v>
+        <v>981.34199999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.380900</v>
+        <v>-91.380899999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>65085.193139</v>
+        <v>65085.193139000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.079220</v>
+        <v>18.079219999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.342000</v>
+        <v>991.34199999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.881000</v>
+        <v>-108.881</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>65096.308484</v>
+        <v>65096.308484000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.082308</v>
+        <v>18.082308000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.719000</v>
+        <v>999.71900000000005</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.379000</v>
+        <v>-124.379</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>65107.330551</v>
+        <v>65107.330550999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.085370</v>
+        <v>18.085370000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.501000</v>
+        <v>-195.501</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>65118.497479</v>
+        <v>65118.497478999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.088472</v>
+        <v>18.088471999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.142000</v>
+        <v>-310.142</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>65129.133724</v>
+        <v>65129.133723999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.091426</v>
+        <v>18.091425999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.740000</v>
+        <v>1214.74</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-489.641000</v>
+        <v>-489.64100000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>65139.635484</v>
+        <v>65139.635483999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.094343</v>
+        <v>18.094342999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.380000</v>
+        <v>1336.38</v>
       </c>
       <c r="BV12" s="1">
-        <v>-685.905000</v>
+        <v>-685.90499999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>65150.398174</v>
+        <v>65150.398174000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.097333</v>
+        <v>18.097332999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA12" s="1">
-        <v>-893.940000</v>
+        <v>-893.94</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>65162.632493</v>
+        <v>65162.632492999997</v>
       </c>
       <c r="CD12" s="1">
         <v>18.100731</v>
       </c>
       <c r="CE12" s="1">
-        <v>1821.720000</v>
+        <v>1821.72</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1385.800000</v>
+        <v>-1385.8</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>64991.530574</v>
+        <v>64991.530573999997</v>
       </c>
       <c r="B13" s="1">
         <v>18.053203</v>
       </c>
       <c r="C13" s="1">
-        <v>897.122000</v>
+        <v>897.12199999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.577000</v>
+        <v>-202.577</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>65001.942593</v>
       </c>
       <c r="G13" s="1">
-        <v>18.056095</v>
+        <v>18.056094999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>915.540000</v>
+        <v>915.54</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.558000</v>
+        <v>-171.55799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>65012.434964</v>
       </c>
       <c r="L13" s="1">
-        <v>18.059010</v>
+        <v>18.059010000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.858000</v>
+        <v>939.85799999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.987000</v>
+        <v>-121.98699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>65023.294868</v>
+        <v>65023.294867999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.062026</v>
+        <v>18.062025999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>946.950000</v>
+        <v>946.95</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.372000</v>
+        <v>-105.372</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>65033.796199</v>
+        <v>65033.796198999997</v>
       </c>
       <c r="V13" s="1">
         <v>18.064943</v>
       </c>
       <c r="W13" s="1">
-        <v>953.830000</v>
+        <v>953.83</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.881700</v>
+        <v>-89.881699999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>65044.033626</v>
+        <v>65044.033625999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.067787</v>
+        <v>18.067786999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.129000</v>
+        <v>961.12900000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.909700</v>
+        <v>-77.909700000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>65053.912909</v>
+        <v>65053.912908999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>18.070531</v>
+        <v>18.070530999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.856000</v>
+        <v>965.85599999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.485100</v>
+        <v>-75.485100000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>65064.128052</v>
@@ -3413,73 +3829,73 @@
         <v>18.073369</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.176000</v>
+        <v>973.17600000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.958800</v>
+        <v>-79.958799999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>65074.913553</v>
+        <v>65074.913552999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.076365</v>
+        <v>18.076364999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.360000</v>
+        <v>981.36</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.338600</v>
+        <v>-91.3386</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>65085.559155</v>
+        <v>65085.559155000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.079322</v>
+        <v>18.079322000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.338000</v>
+        <v>991.33799999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.917000</v>
+        <v>-108.917</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>65096.741495</v>
+        <v>65096.741495000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>18.082428</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.717000</v>
+        <v>999.71699999999998</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.414000</v>
+        <v>-124.414</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>65107.628149</v>
+        <v>65107.628148999996</v>
       </c>
       <c r="BE13" s="1">
         <v>18.085452</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.514000</v>
+        <v>-195.51400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>65118.823848</v>
@@ -3488,634 +3904,634 @@
         <v>18.088562</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.106000</v>
+        <v>-310.10599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>65129.553835</v>
+        <v>65129.553834999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.091543</v>
+        <v>18.091543000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.680000</v>
+        <v>1214.68</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-489.655000</v>
+        <v>-489.65499999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>65140.048652</v>
+        <v>65140.048651999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.094458</v>
+        <v>18.094457999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.410000</v>
+        <v>1336.41</v>
       </c>
       <c r="BV13" s="1">
-        <v>-685.920000</v>
+        <v>-685.92</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>65150.825726</v>
+        <v>65150.825726000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.097452</v>
+        <v>18.097452000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA13" s="1">
-        <v>-893.994000</v>
+        <v>-893.99400000000003</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>65163.173919</v>
+        <v>65163.173919000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.100882</v>
+        <v>18.100881999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1823.140000</v>
+        <v>1823.14</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1386.700000</v>
+        <v>-1386.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>64991.873343</v>
+        <v>64991.873342999999</v>
       </c>
       <c r="B14" s="1">
-        <v>18.053298</v>
+        <v>18.053298000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>897.084000</v>
+        <v>897.08399999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.604000</v>
+        <v>-202.60400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>65002.288802</v>
+        <v>65002.288802000003</v>
       </c>
       <c r="G14" s="1">
-        <v>18.056191</v>
+        <v>18.056190999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>914.748000</v>
+        <v>914.74800000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.592000</v>
+        <v>-171.59200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>65013.086212</v>
+        <v>65013.086212000002</v>
       </c>
       <c r="L14" s="1">
-        <v>18.059191</v>
+        <v>18.059190999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>939.802000</v>
+        <v>939.80200000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.003000</v>
+        <v>-122.003</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>65023.679765</v>
+        <v>65023.679765000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.062133</v>
+        <v>18.062132999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>946.937000</v>
+        <v>946.93700000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.379000</v>
+        <v>-105.379</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>65034.180102</v>
+        <v>65034.180101999998</v>
       </c>
       <c r="V14" s="1">
-        <v>18.065050</v>
+        <v>18.065049999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>953.792000</v>
+        <v>953.79200000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.910600</v>
+        <v>-89.910600000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>65044.380794</v>
+        <v>65044.380793999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.067884</v>
+        <v>18.067883999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.095000</v>
+        <v>961.09500000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.929600</v>
+        <v>-77.929599999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>65054.257132</v>
+        <v>65054.257131999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.070627</v>
+        <v>18.070627000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.990000</v>
+        <v>965.99</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.392200</v>
+        <v>-75.392200000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>65064.474720</v>
+        <v>65064.474719999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.073465</v>
+        <v>18.073464999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.168000</v>
+        <v>973.16800000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.954700</v>
+        <v>-79.954700000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>65075.336112</v>
+        <v>65075.336111999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.076482</v>
+        <v>18.076481999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.359000</v>
+        <v>981.35900000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.363500</v>
+        <v>-91.363500000000002</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>65085.991202</v>
+        <v>65085.991201999997</v>
       </c>
       <c r="AU14" s="1">
         <v>18.079442</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.329000</v>
+        <v>991.32899999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.889000</v>
+        <v>-108.889</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>65097.027653</v>
+        <v>65097.027652999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.082508</v>
+        <v>18.082508000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.701000</v>
+        <v>999.70100000000002</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.392000</v>
+        <v>-124.392</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>65107.986786</v>
+        <v>65107.986786000001</v>
       </c>
       <c r="BE14" s="1">
         <v>18.085552</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.531000</v>
+        <v>-195.53100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>65119.205767</v>
+        <v>65119.205766999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.088668</v>
+        <v>18.088667999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.128000</v>
+        <v>-310.12799999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>65129.952115</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.091653</v>
+        <v>18.091653000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.700000</v>
+        <v>1214.7</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-489.653000</v>
+        <v>-489.65300000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>65140.475860</v>
+        <v>65140.475859999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.094577</v>
+        <v>18.094577000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="BV14" s="1">
-        <v>-685.933000</v>
+        <v>-685.93299999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>65151.257740</v>
+        <v>65151.257740000001</v>
       </c>
       <c r="BY14" s="1">
         <v>18.097572</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.120000</v>
+        <v>1471.12</v>
       </c>
       <c r="CA14" s="1">
-        <v>-893.842000</v>
+        <v>-893.84199999999998</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>65163.712780</v>
+        <v>65163.712780000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.101031</v>
+        <v>18.101030999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1822.350000</v>
+        <v>1822.35</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1385.090000</v>
+        <v>-1385.09</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>64992.521087</v>
+        <v>64992.521087000001</v>
       </c>
       <c r="B15" s="1">
-        <v>18.053478</v>
+        <v>18.053477999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>897.035000</v>
+        <v>897.03499999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.607000</v>
+        <v>-202.607</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>65002.965872</v>
+        <v>65002.965872000001</v>
       </c>
       <c r="G15" s="1">
         <v>18.056379</v>
       </c>
       <c r="H15" s="1">
-        <v>915.675000</v>
+        <v>915.67499999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-172.104000</v>
+        <v>-172.10400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>65013.470114</v>
+        <v>65013.470114000003</v>
       </c>
       <c r="L15" s="1">
-        <v>18.059297</v>
+        <v>18.059297000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>939.924000</v>
+        <v>939.92399999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.032000</v>
+        <v>-122.032</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>65024.027492</v>
+        <v>65024.027492000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.062230</v>
+        <v>18.06223</v>
       </c>
       <c r="R15" s="1">
-        <v>946.893000</v>
+        <v>946.89300000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.354000</v>
+        <v>-105.354</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>65034.523798</v>
+        <v>65034.523798000002</v>
       </c>
       <c r="V15" s="1">
-        <v>18.065145</v>
+        <v>18.065145000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.762000</v>
+        <v>953.76199999999994</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.858500</v>
+        <v>-89.858500000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>65044.732954</v>
+        <v>65044.732953999999</v>
       </c>
       <c r="AA15" s="1">
         <v>18.067981</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.151000</v>
+        <v>961.15099999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.858000</v>
+        <v>-77.858000000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>65054.677741</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.070744</v>
+        <v>18.070744000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.925000</v>
+        <v>965.92499999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.462500</v>
+        <v>-75.462500000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>65064.899293</v>
+        <v>65064.899293000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.073583</v>
+        <v>18.073582999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.180000</v>
+        <v>973.18</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.957100</v>
+        <v>-79.957099999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>65075.632224</v>
+        <v>65075.632224000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.076565</v>
+        <v>18.076564999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.347000</v>
+        <v>981.34699999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.372500</v>
+        <v>-91.372500000000002</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>65086.288275</v>
+        <v>65086.288274999999</v>
       </c>
       <c r="AU15" s="1">
         <v>18.079525</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.324000</v>
+        <v>991.32399999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.877000</v>
+        <v>-108.877</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>65097.384772</v>
+        <v>65097.384771999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.082607</v>
+        <v>18.082606999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.752000</v>
+        <v>999.75199999999995</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.401000</v>
+        <v>-124.401</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>65108.348340</v>
+        <v>65108.348339999997</v>
       </c>
       <c r="BE15" s="1">
         <v>18.085652</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.910000</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.519000</v>
+        <v>-195.51900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>65119.596615</v>
+        <v>65119.596615000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>18.088777</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.132000</v>
+        <v>-310.13200000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>65130.380136</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.091772</v>
+        <v>18.091771999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.730000</v>
+        <v>1214.73</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-489.643000</v>
+        <v>-489.64299999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>65140.876985</v>
+        <v>65140.876985000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.094688</v>
+        <v>18.094688000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV15" s="1">
-        <v>-685.836000</v>
+        <v>-685.83600000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>65151.688764</v>
+        <v>65151.688763999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.097691</v>
+        <v>18.097691000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.180000</v>
+        <v>1471.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-894.018000</v>
+        <v>-894.01800000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>65164.254410</v>
+        <v>65164.254410000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.101182</v>
+        <v>18.101182000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1822.160000</v>
+        <v>1822.16</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1386.770000</v>
+        <v>-1386.77</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>64992.897053</v>
+        <v>64992.897053000001</v>
       </c>
       <c r="B16" s="1">
         <v>18.053583</v>
       </c>
       <c r="C16" s="1">
-        <v>897.138000</v>
+        <v>897.13800000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.654000</v>
+        <v>-202.654</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>65003.323951</v>
+        <v>65003.323950999998</v>
       </c>
       <c r="G16" s="1">
         <v>18.056479</v>
       </c>
       <c r="H16" s="1">
-        <v>915.398000</v>
+        <v>915.39800000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.225000</v>
+        <v>-171.22499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>65013.816321</v>
+        <v>65013.816320999998</v>
       </c>
       <c r="L16" s="1">
         <v>18.059393</v>
       </c>
       <c r="M16" s="1">
-        <v>939.685000</v>
+        <v>939.68499999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.945000</v>
+        <v>-121.94499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>65024.375688</v>
@@ -4124,799 +4540,799 @@
         <v>18.062327</v>
       </c>
       <c r="R16" s="1">
-        <v>946.915000</v>
+        <v>946.91499999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.374000</v>
+        <v>-105.374</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>65034.870503</v>
+        <v>65034.870502999998</v>
       </c>
       <c r="V16" s="1">
-        <v>18.065242</v>
+        <v>18.065242000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>953.782000</v>
+        <v>953.78200000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.972100</v>
+        <v>-89.972099999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>65045.159512</v>
+        <v>65045.159511999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.068100</v>
+        <v>18.068100000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.036000</v>
+        <v>961.03599999999994</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.839000</v>
+        <v>-77.838999999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>65054.974843</v>
+        <v>65054.974843000004</v>
       </c>
       <c r="AF16" s="1">
         <v>18.070826</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.925000</v>
+        <v>965.92499999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.464700</v>
+        <v>-75.464699999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>65065.181551</v>
+        <v>65065.181551000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.073662</v>
+        <v>18.073661999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.195000</v>
+        <v>973.19500000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.956000</v>
+        <v>-79.956000000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>65075.992847</v>
+        <v>65075.992847000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.076665</v>
+        <v>18.076664999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.346000</v>
+        <v>981.346</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.359300</v>
+        <v>-91.359300000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>65086.653826</v>
+        <v>65086.653826000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.079626</v>
+        <v>18.079626000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.317000</v>
+        <v>991.31700000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.893000</v>
+        <v>-108.893</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>65097.741892</v>
+        <v>65097.741891999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.082706</v>
+        <v>18.082706000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.738000</v>
+        <v>999.73800000000006</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.397000</v>
+        <v>-124.39700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>65109.070019</v>
+        <v>65109.070018999999</v>
       </c>
       <c r="BE16" s="1">
         <v>18.085853</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.511000</v>
+        <v>-195.511</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>65120.348053</v>
+        <v>65120.348053000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.088986</v>
+        <v>18.088985999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.123000</v>
+        <v>-310.12299999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>65130.768007</v>
+        <v>65130.768006999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.091880</v>
+        <v>18.09188</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.740000</v>
+        <v>1214.74</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-489.691000</v>
+        <v>-489.69099999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>65141.314469</v>
+        <v>65141.314468999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.094810</v>
+        <v>18.094809999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="BV16" s="1">
-        <v>-685.831000</v>
+        <v>-685.83100000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>65152.111879</v>
+        <v>65152.111878999996</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.097809</v>
+        <v>18.097809000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.230000</v>
+        <v>1471.23</v>
       </c>
       <c r="CA16" s="1">
-        <v>-893.986000</v>
+        <v>-893.98599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>65165.102569</v>
+        <v>65165.102569000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.101417</v>
+        <v>18.101417000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1822.170000</v>
+        <v>1822.17</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1385.360000</v>
+        <v>-1385.36</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>64993.242800</v>
+        <v>64993.2428</v>
       </c>
       <c r="B17" s="1">
-        <v>18.053679</v>
+        <v>18.053678999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>896.988000</v>
+        <v>896.98800000000006</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.553000</v>
+        <v>-202.553</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>65003.670655</v>
+        <v>65003.670655000002</v>
       </c>
       <c r="G17" s="1">
-        <v>18.056575</v>
+        <v>18.056574999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>915.490000</v>
+        <v>915.49</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.722000</v>
+        <v>-171.72200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>65014.162562</v>
+        <v>65014.162561999998</v>
       </c>
       <c r="L17" s="1">
-        <v>18.059490</v>
+        <v>18.05949</v>
       </c>
       <c r="M17" s="1">
-        <v>939.836000</v>
+        <v>939.83600000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-122.021000</v>
+        <v>-122.021</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>65024.804690</v>
+        <v>65024.804689999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.062446</v>
+        <v>18.062446000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>946.873000</v>
+        <v>946.87300000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.359000</v>
+        <v>-105.35899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>65035.299541</v>
       </c>
       <c r="V17" s="1">
-        <v>18.065361</v>
+        <v>18.065360999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>953.736000</v>
+        <v>953.73599999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.970900</v>
+        <v>-89.9709</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>65045.439257</v>
+        <v>65045.439256999998</v>
       </c>
       <c r="AA17" s="1">
         <v>18.068178</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.151000</v>
+        <v>961.15099999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.882200</v>
+        <v>-77.882199999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>65055.319597</v>
+        <v>65055.319597000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.070922</v>
+        <v>18.070921999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.717000</v>
+        <v>965.71699999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.316400</v>
+        <v>-75.316400000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>65065.533213</v>
+        <v>65065.533213000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.073759</v>
+        <v>18.073758999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.159000</v>
+        <v>973.15899999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.968900</v>
+        <v>-79.968900000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>65076.352911</v>
+        <v>65076.352911000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.076765</v>
+        <v>18.076765000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.374000</v>
+        <v>981.37400000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.370200</v>
+        <v>-91.370199999999997</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>65087.040241</v>
+        <v>65087.040241000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.079733</v>
+        <v>18.079733000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.356000</v>
+        <v>991.35599999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.897000</v>
+        <v>-108.89700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>65098.458113</v>
+        <v>65098.458113000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>18.082905</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.727000</v>
+        <v>999.72699999999998</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.393000</v>
+        <v>-124.393</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>65109.429123</v>
+        <v>65109.429123000002</v>
       </c>
       <c r="BE17" s="1">
         <v>18.085953</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.516000</v>
+        <v>-195.51599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>65120.747344</v>
+        <v>65120.747344000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.089096</v>
+        <v>18.089096000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.180000</v>
+        <v>1106.18</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.114000</v>
+        <v>-310.11399999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>65131.187651</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.091997</v>
+        <v>18.091996999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-489.694000</v>
+        <v>-489.69400000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>65142.059067</v>
+        <v>65142.059067000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.095016</v>
+        <v>18.095016000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.380000</v>
+        <v>1336.38</v>
       </c>
       <c r="BV17" s="1">
-        <v>-685.831000</v>
+        <v>-685.83100000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>65152.839978</v>
+        <v>65152.839978000004</v>
       </c>
       <c r="BY17" s="1">
         <v>18.098011</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.180000</v>
+        <v>1471.18</v>
       </c>
       <c r="CA17" s="1">
-        <v>-894.044000</v>
+        <v>-894.04399999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>65165.333210</v>
+        <v>65165.333209999997</v>
       </c>
       <c r="CD17" s="1">
         <v>18.101481</v>
       </c>
       <c r="CE17" s="1">
-        <v>1821.960000</v>
+        <v>1821.96</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1385.560000</v>
+        <v>-1385.56</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>64993.583020</v>
+        <v>64993.583019999998</v>
       </c>
       <c r="B18" s="1">
         <v>18.053773</v>
       </c>
       <c r="C18" s="1">
-        <v>897.096000</v>
+        <v>897.096</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.578000</v>
+        <v>-202.578</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>65004.084814</v>
+        <v>65004.084814000002</v>
       </c>
       <c r="G18" s="1">
-        <v>18.056690</v>
+        <v>18.05669</v>
       </c>
       <c r="H18" s="1">
-        <v>915.465000</v>
+        <v>915.46500000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.592000</v>
+        <v>-171.59200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>65014.595040</v>
+        <v>65014.59504</v>
       </c>
       <c r="L18" s="1">
-        <v>18.059610</v>
+        <v>18.059609999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>939.802000</v>
+        <v>939.80200000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.890000</v>
+        <v>-121.89</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>65025.083940</v>
+        <v>65025.083939999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.062523</v>
+        <v>18.062522999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>946.894000</v>
+        <v>946.89400000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.316000</v>
+        <v>-105.316</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>65035.568374</v>
+        <v>65035.568374000002</v>
       </c>
       <c r="V18" s="1">
-        <v>18.065436</v>
+        <v>18.065435999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>953.770000</v>
+        <v>953.77</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.978600</v>
+        <v>-89.9786</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>65045.787944</v>
+        <v>65045.787944000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.068274</v>
+        <v>18.068273999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.109000</v>
+        <v>961.10900000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.884800</v>
+        <v>-77.884799999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>65055.664780</v>
+        <v>65055.664779999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.071018</v>
+        <v>18.071017999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.843000</v>
+        <v>965.84299999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.325900</v>
+        <v>-75.325900000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>65065.878397</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.073855</v>
+        <v>18.073854999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.179000</v>
+        <v>973.17899999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.945900</v>
+        <v>-79.945899999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>65077.081038</v>
+        <v>65077.081037999997</v>
       </c>
       <c r="AP18" s="1">
         <v>18.076967</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.345000</v>
+        <v>981.34500000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.354100</v>
+        <v>-91.354100000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>65087.771312</v>
+        <v>65087.771311999997</v>
       </c>
       <c r="AU18" s="1">
         <v>18.079936</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.341000</v>
+        <v>991.34100000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.893000</v>
+        <v>-108.893</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>65098.819696</v>
+        <v>65098.819695999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>18.083005</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.742000</v>
+        <v>999.74199999999996</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.400000</v>
+        <v>-124.4</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>65109.788227</v>
+        <v>65109.788226999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.086052</v>
+        <v>18.086051999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.518000</v>
+        <v>-195.518</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>65121.177870</v>
+        <v>65121.17787</v>
       </c>
       <c r="BJ18" s="1">
         <v>18.089216</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.103000</v>
+        <v>-310.10300000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>65131.900409</v>
+        <v>65131.900409000002</v>
       </c>
       <c r="BO18" s="1">
         <v>18.092195</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-489.673000</v>
+        <v>-489.673</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>65142.187399</v>
+        <v>65142.187399000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.095052</v>
+        <v>18.095051999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="BV18" s="1">
-        <v>-685.800000</v>
+        <v>-685.8</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>65153.017049</v>
+        <v>65153.017049000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.098060</v>
+        <v>18.09806</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA18" s="1">
-        <v>-894.037000</v>
+        <v>-894.03700000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>65165.850536</v>
+        <v>65165.850535999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.101625</v>
+        <v>18.101624999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1822.270000</v>
+        <v>1822.27</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1386.980000</v>
+        <v>-1386.98</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>64994.008589</v>
+        <v>64994.008588999997</v>
       </c>
       <c r="B19" s="1">
         <v>18.053891</v>
       </c>
       <c r="C19" s="1">
-        <v>896.902000</v>
+        <v>896.90200000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.320000</v>
+        <v>-202.32</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>65004.367070</v>
+        <v>65004.36707</v>
       </c>
       <c r="G19" s="1">
-        <v>18.056769</v>
+        <v>18.056768999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>915.585000</v>
+        <v>915.58500000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.090000</v>
+        <v>-172.09</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>65014.877264</v>
+        <v>65014.877264000002</v>
       </c>
       <c r="L19" s="1">
-        <v>18.059688</v>
+        <v>18.059688000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>939.824000</v>
+        <v>939.82399999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-122.066000</v>
+        <v>-122.066</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>65025.433650</v>
+        <v>65025.433649999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.062620</v>
+        <v>18.062619999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>946.961000</v>
+        <v>946.96100000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.404000</v>
+        <v>-105.404</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>65035.910148</v>
+        <v>65035.910148000003</v>
       </c>
       <c r="V19" s="1">
         <v>18.065531</v>
       </c>
       <c r="W19" s="1">
-        <v>953.731000</v>
+        <v>953.73099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.872200</v>
+        <v>-89.872200000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>65046.138153</v>
@@ -4925,814 +5341,814 @@
         <v>18.068372</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.092000</v>
+        <v>961.09199999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.891000</v>
+        <v>-77.891000000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>65056.350249</v>
+        <v>65056.350249000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.071208</v>
+        <v>18.071207999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.878000</v>
+        <v>965.87800000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.438900</v>
+        <v>-75.438900000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>65066.575307</v>
+        <v>65066.575306999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.074049</v>
+        <v>18.074048999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.189000</v>
+        <v>973.18899999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.926300</v>
+        <v>-79.926299999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>65077.461501</v>
+        <v>65077.461500999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.077073</v>
+        <v>18.077072999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.352000</v>
+        <v>981.35199999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.366800</v>
+        <v>-91.366799999999998</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>65088.130734</v>
+        <v>65088.130733999998</v>
       </c>
       <c r="AU19" s="1">
         <v>18.080036</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.332000</v>
+        <v>991.33199999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.886000</v>
+        <v>-108.886</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>65099.179296</v>
+        <v>65099.179296000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>18.083105</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.727000</v>
+        <v>999.72699999999998</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.392000</v>
+        <v>-124.392</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>65110.457858</v>
+        <v>65110.457858000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.086238</v>
+        <v>18.086238000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.890000</v>
+        <v>1038.8900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.525000</v>
+        <v>-195.52500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>65121.637155</v>
+        <v>65121.637154999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.089344</v>
+        <v>18.089344000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.133000</v>
+        <v>-310.13299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>65132.012966</v>
+        <v>65132.012966000002</v>
       </c>
       <c r="BO19" s="1">
         <v>18.092226</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.700000</v>
+        <v>1214.7</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-489.694000</v>
+        <v>-489.69400000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>65142.600599</v>
+        <v>65142.600598999998</v>
       </c>
       <c r="BT19" s="1">
         <v>18.095167</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="BV19" s="1">
-        <v>-685.738000</v>
+        <v>-685.73800000000006</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>65153.440137</v>
+        <v>65153.440136999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.098178</v>
+        <v>18.098178000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.160000</v>
+        <v>1471.16</v>
       </c>
       <c r="CA19" s="1">
-        <v>-894.032000</v>
+        <v>-894.03200000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>65166.371833</v>
+        <v>65166.371832999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.101770</v>
+        <v>18.101769999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1821.750000</v>
+        <v>1821.75</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1386.760000</v>
+        <v>-1386.76</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>64994.281883</v>
+        <v>64994.281883000003</v>
       </c>
       <c r="B20" s="1">
         <v>18.053967</v>
       </c>
       <c r="C20" s="1">
-        <v>897.145000</v>
+        <v>897.14499999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.519000</v>
+        <v>-202.51900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>65004.709277</v>
+        <v>65004.709277000002</v>
       </c>
       <c r="G20" s="1">
-        <v>18.056864</v>
+        <v>18.056864000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>915.574000</v>
+        <v>915.57399999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.476000</v>
+        <v>-171.476</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>65015.220497</v>
+        <v>65015.220497000002</v>
       </c>
       <c r="L20" s="1">
-        <v>18.059783</v>
+        <v>18.059782999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>939.856000</v>
+        <v>939.85599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.938000</v>
+        <v>-121.938</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>65025.780323</v>
+        <v>65025.780322999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.062717</v>
+        <v>18.062716999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.944000</v>
+        <v>946.94399999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.414000</v>
+        <v>-105.414</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>65036.255868</v>
       </c>
       <c r="V20" s="1">
-        <v>18.065627</v>
+        <v>18.065626999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>953.617000</v>
+        <v>953.61699999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.947900</v>
+        <v>-89.947900000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>65046.832518</v>
+        <v>65046.832518000003</v>
       </c>
       <c r="AA20" s="1">
         <v>18.068565</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.104000</v>
+        <v>961.10400000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.902000</v>
+        <v>-77.902000000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>65056.695466</v>
+        <v>65056.695465999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.071304</v>
+        <v>18.071304000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.040000</v>
+        <v>966.04</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.451800</v>
+        <v>-75.451800000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>65066.924459</v>
+        <v>65066.924459000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.074146</v>
+        <v>18.074145999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.161000</v>
+        <v>973.16099999999994</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.938300</v>
+        <v>-79.938299999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>65077.819581</v>
+        <v>65077.819581000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.077172</v>
+        <v>18.077172000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.365000</v>
+        <v>981.36500000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.368100</v>
+        <v>-91.368099999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>65088.803983</v>
+        <v>65088.803982999998</v>
       </c>
       <c r="AU20" s="1">
         <v>18.080223</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.363000</v>
+        <v>991.36300000000006</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.896000</v>
+        <v>-108.896</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>65099.848896</v>
+        <v>65099.848896000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.083291</v>
+        <v>18.083290999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.732000</v>
+        <v>999.73199999999997</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.402000</v>
+        <v>-124.402</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>65110.907697</v>
+        <v>65110.907697000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.086363</v>
+        <v>18.086362999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.900000</v>
+        <v>1038.9000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.523000</v>
+        <v>-195.523</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>65121.910948</v>
+        <v>65121.910947999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.089420</v>
+        <v>18.08942</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.114000</v>
+        <v>-310.11399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>65132.430132</v>
+        <v>65132.430132000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.092342</v>
+        <v>18.092341999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.740000</v>
+        <v>1214.74</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-489.677000</v>
+        <v>-489.67700000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>65143.030600</v>
+        <v>65143.030599999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.095286</v>
+        <v>18.095286000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.440000</v>
+        <v>1336.44</v>
       </c>
       <c r="BV20" s="1">
-        <v>-685.765000</v>
+        <v>-685.76499999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>65153.890505</v>
+        <v>65153.890505000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.098303</v>
+        <v>18.098303000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA20" s="1">
-        <v>-893.953000</v>
+        <v>-893.95299999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>65166.921431</v>
+        <v>65166.921431000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.101923</v>
+        <v>18.101922999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1821.890000</v>
+        <v>1821.89</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1385.570000</v>
+        <v>-1385.57</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>64994.622467</v>
+        <v>64994.622467000001</v>
       </c>
       <c r="B21" s="1">
-        <v>18.054062</v>
+        <v>18.054061999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>896.843000</v>
+        <v>896.84299999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.530000</v>
+        <v>-202.53</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>65005.054615</v>
+        <v>65005.054615000001</v>
       </c>
       <c r="G21" s="1">
-        <v>18.056960</v>
+        <v>18.05696</v>
       </c>
       <c r="H21" s="1">
-        <v>915.889000</v>
+        <v>915.88900000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.636000</v>
+        <v>-171.636</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>65015.564230</v>
+        <v>65015.564230000004</v>
       </c>
       <c r="L21" s="1">
-        <v>18.059879</v>
+        <v>18.059878999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.845000</v>
+        <v>939.84500000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.984000</v>
+        <v>-121.98399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>65026.476210</v>
+        <v>65026.476210000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.062910</v>
+        <v>18.062909999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>946.873000</v>
+        <v>946.87300000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.416000</v>
+        <v>-105.416</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>65036.943283</v>
+        <v>65036.943283000001</v>
       </c>
       <c r="V21" s="1">
         <v>18.065818</v>
       </c>
       <c r="W21" s="1">
-        <v>953.784000</v>
+        <v>953.78399999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.919400</v>
+        <v>-89.919399999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>65047.180213</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.068661</v>
+        <v>18.068660999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.143000</v>
+        <v>961.14300000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.878100</v>
+        <v>-77.878100000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>65057.037720</v>
+        <v>65057.03772</v>
       </c>
       <c r="AF21" s="1">
         <v>18.071399</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.767000</v>
+        <v>965.76700000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.491800</v>
+        <v>-75.491799999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>65067.271658</v>
+        <v>65067.271657999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.074242</v>
+        <v>18.074242000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.159000</v>
+        <v>973.15899999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.961000</v>
+        <v>-79.960999999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>65078.487197</v>
+        <v>65078.487197000002</v>
       </c>
       <c r="AP21" s="1">
         <v>18.077358</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.356000</v>
+        <v>981.35599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.358300</v>
+        <v>-91.3583</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>65089.224591</v>
+        <v>65089.224590999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.080340</v>
+        <v>18.08034</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.346000</v>
+        <v>991.346</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.899000</v>
+        <v>-108.899</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>65100.253631</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.083404</v>
+        <v>18.083404000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.717000</v>
+        <v>999.71699999999998</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.395000</v>
+        <v>-124.395</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>65111.270273</v>
+        <v>65111.270273000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.086464</v>
+        <v>18.086463999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.514000</v>
+        <v>-195.51400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>65122.285458</v>
+        <v>65122.285457999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.089524</v>
+        <v>18.089524000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.156000</v>
+        <v>-310.15600000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>65132.828886</v>
+        <v>65132.828886000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.092452</v>
+        <v>18.092452000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-489.694000</v>
+        <v>-489.69400000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>65143.446285</v>
+        <v>65143.446284999998</v>
       </c>
       <c r="BT21" s="1">
         <v>18.095402</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="BV21" s="1">
-        <v>-685.726000</v>
+        <v>-685.726</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>65154.320076</v>
+        <v>65154.320076000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.098422</v>
+        <v>18.098421999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="CA21" s="1">
-        <v>-894.021000</v>
+        <v>-894.02099999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>65167.453110</v>
+        <v>65167.453110000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.102070</v>
+        <v>18.102070000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1822.510000</v>
+        <v>1822.51</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1387.010000</v>
+        <v>-1387.01</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>64994.963882</v>
+        <v>64994.963881999996</v>
       </c>
       <c r="B22" s="1">
         <v>18.054157</v>
       </c>
       <c r="C22" s="1">
-        <v>897.160000</v>
+        <v>897.16</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.612000</v>
+        <v>-202.61199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>65005.741984</v>
       </c>
       <c r="G22" s="1">
-        <v>18.057151</v>
+        <v>18.057151000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>915.797000</v>
+        <v>915.79700000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.974000</v>
+        <v>-171.97399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>65016.255688</v>
+        <v>65016.255687999997</v>
       </c>
       <c r="L22" s="1">
-        <v>18.060071</v>
+        <v>18.060071000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.818000</v>
+        <v>939.81799999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.978000</v>
+        <v>-121.97799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>65026.826385</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.063007</v>
+        <v>18.063006999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.877000</v>
+        <v>946.87699999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.338000</v>
+        <v>-105.33799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>65037.287012</v>
+        <v>65037.287012000001</v>
       </c>
       <c r="V22" s="1">
-        <v>18.065913</v>
+        <v>18.065912999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>953.743000</v>
+        <v>953.74300000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.937900</v>
+        <v>-89.937899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>65047.529924</v>
+        <v>65047.529924000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.068758</v>
+        <v>18.068757999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.106000</v>
+        <v>961.10599999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.890400</v>
+        <v>-77.8904</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>65057.700857</v>
+        <v>65057.700857000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.071584</v>
+        <v>18.071584000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.825000</v>
+        <v>965.82500000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.477400</v>
+        <v>-75.477400000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>65067.935306</v>
+        <v>65067.935305999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.074426</v>
+        <v>18.074425999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.189000</v>
+        <v>973.18899999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.933700</v>
+        <v>-79.933700000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>65078.899867</v>
@@ -5741,180 +6157,180 @@
         <v>18.077472</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.367000</v>
+        <v>981.36699999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.357200</v>
+        <v>-91.357200000000006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>65089.617422</v>
+        <v>65089.617422000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.080449</v>
+        <v>18.080449000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.351000</v>
+        <v>991.351</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.882000</v>
+        <v>-108.88200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>65100.642031</v>
+        <v>65100.642031000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.083512</v>
+        <v>18.083511999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.740000</v>
+        <v>999.74</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.406000</v>
+        <v>-124.40600000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>65111.628612</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.086564</v>
+        <v>18.086563999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.523000</v>
+        <v>-195.523</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>65122.705073</v>
+        <v>65122.705072999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.089640</v>
+        <v>18.089639999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.127000</v>
+        <v>-310.12700000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>65133.250483</v>
+        <v>65133.250483000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.092570</v>
+        <v>18.092569999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.750000</v>
+        <v>1214.75</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-489.703000</v>
+        <v>-489.70299999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>65143.861411</v>
+        <v>65143.861410999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.095517</v>
+        <v>18.095517000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV22" s="1">
-        <v>-685.661000</v>
+        <v>-685.66099999999994</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>65154.741342</v>
+        <v>65154.741342000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.098539</v>
+        <v>18.098538999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-893.968000</v>
+        <v>-893.96799999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>65167.970438</v>
+        <v>65167.970437999997</v>
       </c>
       <c r="CD22" s="1">
         <v>18.102214</v>
       </c>
       <c r="CE22" s="1">
-        <v>1823.610000</v>
+        <v>1823.61</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1386.090000</v>
+        <v>-1386.09</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>64995.647370</v>
+        <v>64995.647369999999</v>
       </c>
       <c r="B23" s="1">
-        <v>18.054346</v>
+        <v>18.054345999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>896.950000</v>
+        <v>896.95</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.661000</v>
+        <v>-202.661</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>65006.085179</v>
+        <v>65006.085179000002</v>
       </c>
       <c r="G23" s="1">
-        <v>18.057246</v>
+        <v>18.057245999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>915.463000</v>
+        <v>915.46299999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.683000</v>
+        <v>-171.68299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>65016.601377</v>
+        <v>65016.601376999999</v>
       </c>
       <c r="L23" s="1">
         <v>18.060167</v>
       </c>
       <c r="M23" s="1">
-        <v>939.785000</v>
+        <v>939.78499999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.818000</v>
+        <v>-121.818</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>65027.177097</v>
@@ -5923,542 +6339,542 @@
         <v>18.063105</v>
       </c>
       <c r="R23" s="1">
-        <v>946.886000</v>
+        <v>946.88599999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.358000</v>
+        <v>-105.358</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>65037.942258</v>
+        <v>65037.942258000003</v>
       </c>
       <c r="V23" s="1">
-        <v>18.066095</v>
+        <v>18.066095000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.797000</v>
+        <v>953.79700000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.868200</v>
+        <v>-89.868200000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>65048.196517</v>
+        <v>65048.196516999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.068943</v>
+        <v>18.068943000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.149000</v>
+        <v>961.149</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.862000</v>
+        <v>-77.861999999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>65058.065450</v>
+        <v>65058.065450000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.071685</v>
+        <v>18.071684999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.907000</v>
+        <v>965.90700000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.542100</v>
+        <v>-75.542100000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>65068.319705</v>
+        <v>65068.319705000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.074533</v>
+        <v>18.074532999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.169000</v>
+        <v>973.16899999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.938000</v>
+        <v>-79.938000000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>65079.282779</v>
+        <v>65079.282779000001</v>
       </c>
       <c r="AP23" s="1">
         <v>18.077579</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.351000</v>
+        <v>981.351</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.388600</v>
+        <v>-91.388599999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>65089.981484</v>
+        <v>65089.981484000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.080550</v>
+        <v>18.080549999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.339000</v>
+        <v>991.33900000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.911000</v>
+        <v>-108.911</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>65101.002590</v>
+        <v>65101.002589999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.083612</v>
+        <v>18.083611999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.745000</v>
+        <v>999.745</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.407000</v>
+        <v>-124.407</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>65112.052505</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.086681</v>
+        <v>18.086680999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.512000</v>
+        <v>-195.512</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>65123.045825</v>
+        <v>65123.045825000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.089735</v>
+        <v>18.089735000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.126000</v>
+        <v>-310.12599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>65133.646807</v>
+        <v>65133.646806999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.092680</v>
+        <v>18.092680000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.740000</v>
+        <v>1214.74</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-489.680000</v>
+        <v>-489.68</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>65144.272581</v>
+        <v>65144.272580999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.095631</v>
+        <v>18.095631000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="BV23" s="1">
-        <v>-685.641000</v>
+        <v>-685.64099999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>65155.164727</v>
+        <v>65155.164727000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.098657</v>
+        <v>18.098656999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.230000</v>
+        <v>1471.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-893.948000</v>
+        <v>-893.94799999999998</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>65168.490741</v>
+        <v>65168.490741000001</v>
       </c>
       <c r="CD23" s="1">
         <v>18.102359</v>
       </c>
       <c r="CE23" s="1">
-        <v>1822.690000</v>
+        <v>1822.69</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1385.470000</v>
+        <v>-1385.47</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>64995.991625</v>
+        <v>64995.991625000002</v>
       </c>
       <c r="B24" s="1">
-        <v>18.054442</v>
+        <v>18.054442000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>897.079000</v>
+        <v>897.07899999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.713000</v>
+        <v>-202.71299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>65006.434891</v>
+        <v>65006.434890999997</v>
       </c>
       <c r="G24" s="1">
-        <v>18.057343</v>
+        <v>18.057342999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>915.962000</v>
+        <v>915.96199999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.870000</v>
+        <v>-171.87</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>65016.951038</v>
+        <v>65016.951037999999</v>
       </c>
       <c r="L24" s="1">
         <v>18.060264</v>
       </c>
       <c r="M24" s="1">
-        <v>939.817000</v>
+        <v>939.81700000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.892000</v>
+        <v>-121.892</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>65027.824831</v>
+        <v>65027.824830999998</v>
       </c>
       <c r="Q24" s="1">
         <v>18.063285</v>
       </c>
       <c r="R24" s="1">
-        <v>946.935000</v>
+        <v>946.93499999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.392000</v>
+        <v>-105.392</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>65038.316242</v>
+        <v>65038.316242000001</v>
       </c>
       <c r="V24" s="1">
-        <v>18.066199</v>
+        <v>18.066199000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>953.693000</v>
+        <v>953.69299999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.904300</v>
+        <v>-89.904300000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>65048.577940</v>
+        <v>65048.577940000003</v>
       </c>
       <c r="AA24" s="1">
         <v>18.069049</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.116000</v>
+        <v>961.11599999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.859800</v>
+        <v>-77.859800000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>65058.409638</v>
+        <v>65058.409637999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.071780</v>
+        <v>18.07178</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.849000</v>
+        <v>965.84900000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.609400</v>
+        <v>-75.609399999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>65068.668393</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.074630</v>
+        <v>18.074629999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.162000</v>
+        <v>973.16200000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.929500</v>
+        <v>-79.929500000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>65079.644394</v>
+        <v>65079.644394000003</v>
       </c>
       <c r="AP24" s="1">
         <v>18.077679</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.358000</v>
+        <v>981.35799999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.363800</v>
+        <v>-91.363799999999998</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>65090.410065</v>
+        <v>65090.410064999996</v>
       </c>
       <c r="AU24" s="1">
         <v>18.080669</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.305000</v>
+        <v>991.30499999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.904000</v>
+        <v>-108.904</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>65101.425677</v>
+        <v>65101.425676999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.083729</v>
+        <v>18.083729000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.729000</v>
+        <v>999.72900000000004</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.413000</v>
+        <v>-124.413</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>65112.350063</v>
+        <v>65112.350062999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.086764</v>
+        <v>18.086763999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.525000</v>
+        <v>-195.52500000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>65123.436144</v>
+        <v>65123.436143999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.089843</v>
+        <v>18.089842999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.131000</v>
+        <v>-310.13099999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>65134.069908</v>
+        <v>65134.069907999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.092797</v>
+        <v>18.092797000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.760000</v>
+        <v>1214.76</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-489.667000</v>
+        <v>-489.66699999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>65144.690212</v>
+        <v>65144.690212000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.095747</v>
+        <v>18.095746999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="BV24" s="1">
-        <v>-685.607000</v>
+        <v>-685.60699999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>65155.587317</v>
+        <v>65155.587316999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.098774</v>
+        <v>18.098773999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.350000</v>
+        <v>1471.35</v>
       </c>
       <c r="CA24" s="1">
-        <v>-893.955000</v>
+        <v>-893.95500000000004</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>65169.007609</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.102502</v>
+        <v>18.102502000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1822.810000</v>
+        <v>1822.81</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1385.460000</v>
+        <v>-1385.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>64996.331352</v>
+        <v>64996.331352000001</v>
       </c>
       <c r="B25" s="1">
-        <v>18.054536</v>
+        <v>18.054535999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>897.125000</v>
+        <v>897.125</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.670000</v>
+        <v>-202.67</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>65007.086604</v>
+        <v>65007.086603999996</v>
       </c>
       <c r="G25" s="1">
-        <v>18.057524</v>
+        <v>18.057524000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>915.576000</v>
+        <v>915.57600000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-172.053000</v>
+        <v>-172.053</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>65017.610749</v>
+        <v>65017.610748999999</v>
       </c>
       <c r="L25" s="1">
         <v>18.060447</v>
       </c>
       <c r="M25" s="1">
-        <v>939.725000</v>
+        <v>939.72500000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-122.043000</v>
+        <v>-122.04300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>65028.222160</v>
+        <v>65028.222159999998</v>
       </c>
       <c r="Q25" s="1">
         <v>18.063395</v>
       </c>
       <c r="R25" s="1">
-        <v>946.941000</v>
+        <v>946.94100000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.416000</v>
+        <v>-105.416</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>65038.658448</v>
+        <v>65038.658448000002</v>
       </c>
       <c r="V25" s="1">
-        <v>18.066294</v>
+        <v>18.066293999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>953.694000</v>
+        <v>953.69399999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.948500</v>
+        <v>-89.948499999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>65048.926131</v>
@@ -6467,437 +6883,438 @@
         <v>18.069146</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.092000</v>
+        <v>961.09199999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.877800</v>
+        <v>-77.877799999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>65058.754885</v>
+        <v>65058.754885000002</v>
       </c>
       <c r="AF25" s="1">
         <v>18.071876</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.827000</v>
+        <v>965.827</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.622000</v>
+        <v>-75.622</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>65069.019073</v>
+        <v>65069.019073000003</v>
       </c>
       <c r="AK25" s="1">
         <v>18.074728</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.207000</v>
+        <v>973.20699999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.957600</v>
+        <v>-79.957599999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>65080.069434</v>
+        <v>65080.069433999997</v>
       </c>
       <c r="AP25" s="1">
         <v>18.077797</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.359000</v>
+        <v>981.35900000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.374600</v>
+        <v>-91.374600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>65090.710149</v>
+        <v>65090.710148999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.080753</v>
+        <v>18.080753000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.350000</v>
+        <v>991.35</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.895000</v>
+        <v>-108.895</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>65101.719805</v>
+        <v>65101.719805000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.083811</v>
+        <v>18.083811000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.714000</v>
+        <v>999.71400000000006</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.401000</v>
+        <v>-124.401</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>65112.711151</v>
+        <v>65112.711151000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.086864</v>
+        <v>18.086863999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.521000</v>
+        <v>-195.52099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>65123.808672</v>
+        <v>65123.808671999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.089947</v>
+        <v>18.089946999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.112000</v>
+        <v>-310.11200000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>65134.467667</v>
+        <v>65134.467666999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.092908</v>
+        <v>18.092908000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-489.677000</v>
+        <v>-489.67700000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>65145.124212</v>
+        <v>65145.124212000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.095868</v>
+        <v>18.095867999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV25" s="1">
-        <v>-685.609000</v>
+        <v>-685.60900000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>65156.003958</v>
+        <v>65156.003958000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.098890</v>
+        <v>18.098890000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.190000</v>
+        <v>1471.19</v>
       </c>
       <c r="CA25" s="1">
-        <v>-894.036000</v>
+        <v>-894.03599999999994</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>65169.559162</v>
+        <v>65169.559161999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.102655</v>
+        <v>18.102654999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1823.530000</v>
+        <v>1823.53</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1385.810000</v>
+        <v>-1385.81</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>64996.987561</v>
+        <v>64996.987561000002</v>
       </c>
       <c r="B26" s="1">
-        <v>18.054719</v>
+        <v>18.054718999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>897.068000</v>
+        <v>897.06799999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.538000</v>
+        <v>-202.53800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>65007.469018</v>
+        <v>65007.469018000003</v>
       </c>
       <c r="G26" s="1">
-        <v>18.057630</v>
+        <v>18.05763</v>
       </c>
       <c r="H26" s="1">
-        <v>915.799000</v>
+        <v>915.79899999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.494000</v>
+        <v>-171.494</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>65017.988702</v>
+        <v>65017.988702000002</v>
       </c>
       <c r="L26" s="1">
-        <v>18.060552</v>
+        <v>18.060552000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>939.933000</v>
+        <v>939.93299999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.906000</v>
+        <v>-121.90600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>65028.570350</v>
+        <v>65028.570350000002</v>
       </c>
       <c r="Q26" s="1">
         <v>18.063492</v>
       </c>
       <c r="R26" s="1">
-        <v>946.894000</v>
+        <v>946.89400000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.386000</v>
+        <v>-105.386</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>65039.002673</v>
+        <v>65039.002673000003</v>
       </c>
       <c r="V26" s="1">
-        <v>18.066390</v>
+        <v>18.066389999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>953.788000</v>
+        <v>953.78800000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.910300</v>
+        <v>-89.910300000000007</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>65049.273829</v>
+        <v>65049.273828999998</v>
       </c>
       <c r="AA26" s="1">
         <v>18.069243</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.120000</v>
+        <v>961.12</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.918000</v>
+        <v>-77.918000000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>65059.173478</v>
+        <v>65059.173477999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.071993</v>
+        <v>18.071992999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.919000</v>
+        <v>965.91899999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.423900</v>
+        <v>-75.423900000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>65069.455544</v>
+        <v>65069.455543999997</v>
       </c>
       <c r="AK26" s="1">
         <v>18.074849</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.150000</v>
+        <v>973.15</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.941100</v>
+        <v>-79.941100000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>65080.364555</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.077879</v>
+        <v>18.077878999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.369000</v>
+        <v>981.36900000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.386100</v>
+        <v>-91.386099999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>65091.071195</v>
+        <v>65091.071194999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.080853</v>
+        <v>18.080853000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.351000</v>
+        <v>991.351</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.877000</v>
+        <v>-108.877</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>65102.076924</v>
+        <v>65102.076924000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.083910</v>
+        <v>18.083909999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.731000</v>
+        <v>999.73099999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.396000</v>
+        <v>-124.396</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>65113.074751</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.086965</v>
+        <v>18.086964999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.518000</v>
+        <v>-195.518</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>65124.561572</v>
+        <v>65124.561571999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>18.090156</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.131000</v>
+        <v>-310.13099999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>65134.892242</v>
+        <v>65134.892242000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.093026</v>
+        <v>18.093025999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-489.681000</v>
+        <v>-489.68099999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>65145.554741</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.095987</v>
+        <v>18.095987000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="BV26" s="1">
-        <v>-685.550000</v>
+        <v>-685.55</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>65156.453860</v>
+        <v>65156.453860000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.099015</v>
+        <v>18.099015000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA26" s="1">
-        <v>-893.913000</v>
+        <v>-893.91300000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>65170.091865</v>
+        <v>65170.091865000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.102803</v>
+        <v>18.102803000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1822.480000</v>
+        <v>1822.48</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1385.320000</v>
+        <v>-1385.32</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>